--- a/biology/Médecine/Alain_Cribier/Alain_Cribier.xlsx
+++ b/biology/Médecine/Alain_Cribier/Alain_Cribier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Cribier, né le 25 janvier 1945 à Paris et mort le 16 février 2024 à Pavilly (Seine-Maritime)[1],[2], est un cardiologue français, professeur des universités – praticien hospitalier émérite au Centre hospitalier universitaire de Rouen. Il est notamment à l'origine de la technique de remplacement percutané de valve aortique (TAVI ou TAVR)[3] dont la première mondiale sur l'homme a lieu en 2002.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Cribier, né le 25 janvier 1945 à Paris et mort le 16 février 2024 à Pavilly (Seine-Maritime) est un cardiologue français, professeur des universités – praticien hospitalier émérite au Centre hospitalier universitaire de Rouen. Il est notamment à l'origine de la technique de remplacement percutané de valve aortique (TAVI ou TAVR) dont la première mondiale sur l'homme a lieu en 2002.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Apports scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Cribier est à l’origine de trois premières mondiales en cardiologie  interventionnelle[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Cribier est à l’origine de trois premières mondiales en cardiologie  interventionnelle :
 1985, la « valvuloplastie aortique à ballonnet », consistant à dilater la valve malade avec un cathéter à ballonnet ;
 1992, la « commisurotomie mitrale faisant appel à un dilatateur métallique » pour traiter la sténose de la valve mitrale ;
 2002, la technique d’implantation transcathéter de valves aortiques (TAVI) , réalisant le tout premier cas de TAVI à Rouen.
-En 2002, pour les patients non opérables par la technique chirurgicale habituelle, Alain Cribier élabore une valve composée de péricarde bovin, insérée à l'intérieur d'un stent en acier expansible au moyen d'un ballonnet gonflable. Plus de 100 implantations valvulaires ont été ensuite réalisées chez l'animal (mouton) à l'Institut Montsouris[5].
+En 2002, pour les patients non opérables par la technique chirurgicale habituelle, Alain Cribier élabore une valve composée de péricarde bovin, insérée à l'intérieur d'un stent en acier expansible au moyen d'un ballonnet gonflable. Plus de 100 implantations valvulaires ont été ensuite réalisées chez l'animal (mouton) à l'Institut Montsouris.
 Pour développer son invention, il crée une start-up aux États-Unis (Percutaneous Valve Technologies, PVT), les premiers prototypes de valve sont disponibles en 2000.
-Dans les 10 années qui suivirent, cette invention s'est répandue très vite dans le monde entier[6]. En 2012, on estime qu'elle a sauvé la vie de 50 000 personnes[7]. L'intervention se fait à l'aide d'un cathéter (une sonde), sans ouvrir le thorax[8],[9], et dure « une heure à peine »[10]. Reconnu par l’ensemble de la communauté médicale, le TAVI est approuvé en 2019 par la Food and Drud Administration américaine.
-Depuis 2013, Alain Cribier dirige le MTC (Medical Training Center) de Rouen, un centre pluridisciplinaire consacré à l’apprentissage de la médecine et des soins par simulation, vidéoconférences et formation entre médecins[11].
+Dans les 10 années qui suivirent, cette invention s'est répandue très vite dans le monde entier. En 2012, on estime qu'elle a sauvé la vie de 50 000 personnes. L'intervention se fait à l'aide d'un cathéter (une sonde), sans ouvrir le thorax et dure « une heure à peine ». Reconnu par l’ensemble de la communauté médicale, le TAVI est approuvé en 2019 par la Food and Drud Administration américaine.
+Depuis 2013, Alain Cribier dirige le MTC (Medical Training Center) de Rouen, un centre pluridisciplinaire consacré à l’apprentissage de la médecine et des soins par simulation, vidéoconférences et formation entre médecins.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alain Cribier publie plus de 1000 articles scientifiques dans les domaines de la cardiologie interventionnelle, de l’angioplastie coronarienne, des atteintes valvulaires et des technologies innovantes.
 (en) A. Cribier, « The development of transcatheter aortic valve replacement » [« le développement du remplacement valvulaire aortique transcathéter »], Glob Cardiol Sci Pract, vol. 2016, no 4,‎ 30 décembre 2016 (DOI 10.21542/gcsp.2016.32, lire en ligne, consulté le 27 janvier 2018)</t>
@@ -580,21 +596,23 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Chevalier de l'ordre des Palmes académiques
-2010 : TCT Career Achievement Award[8],[12].
-2011 :  Chevalier de la Légion d'honneur (décret du 30 décembre 2011)[13]
-2012 : Membre correspondant de l'Académie nationale de médecine[14]
-2015 : Life Time Achievement Award, India-Live meeting à Madras (Inde)[15].
+2010 : TCT Career Achievement Award,.
+2011 :  Chevalier de la Légion d'honneur (décret du 30 décembre 2011)
+2012 : Membre correspondant de l'Académie nationale de médecine
+2015 : Life Time Achievement Award, India-Live meeting à Madras (Inde).
 2016 :
-Gold Medal Award, European Society of Cardiology à Rome (Italie)[15]
-Legend of Medicine Award, C3 meeting à Orlando (États-Unis)[16]
-2017 : Grand Prix scientifique de la Fondation Lefoulon-Delalande[17].
+Gold Medal Award, European Society of Cardiology à Rome (Italie)
+Legend of Medicine Award, C3 meeting à Orlando (États-Unis)
+2017 : Grand Prix scientifique de la Fondation Lefoulon-Delalande.
 2022 : Prix de l’American College of cardiology
 2023 : élu membre Honoris causa de l’Académie nationale de médecine, lors de l’assemblée du 9 mai
-Il est lauréat de 30 grands prix  nationaux et internationaux : 7 en France, et 23 dans treize autres pays : en Allemagne, en Chine, en Corée du Sud (Master of Masters Award), aux États-Unis, en Espagne, en Inde, en Israël, en Italie, au Japon, au Mexique, aux Pays-Bas, en Pologne, en Suède et en Tunisie[4].
+Il est lauréat de 30 grands prix  nationaux et internationaux : 7 en France, et 23 dans treize autres pays : en Allemagne, en Chine, en Corée du Sud (Master of Masters Award), aux États-Unis, en Espagne, en Inde, en Israël, en Italie, au Japon, au Mexique, aux Pays-Bas, en Pologne, en Suède et en Tunisie.
 </t>
         </is>
       </c>
